--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.27</v>
+        <v>-21.582</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.724</v>
+        <v>13.418</v>
       </c>
     </row>
     <row r="5">
@@ -525,12 +525,12 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.666</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.244</v>
+        <v>-21.108</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.76</v>
+        <v>-21.038</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.232</v>
+        <v>13.718</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.482</v>
+        <v>-20.83300000000001</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>13.082</v>
+        <v>13.142</v>
       </c>
     </row>
     <row r="17">
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.208</v>
+        <v>-22.2</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>13.218</v>
+        <v>13.241</v>
       </c>
     </row>
     <row r="23">
